--- a/src/main/resources/static/excel/基础资料-门幅组.xlsx
+++ b/src/main/resources/static/excel/基础资料-门幅组.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>编码</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>规格名称</t>
+  </si>
+  <si>
+    <t>基础规格</t>
   </si>
   <si>
     <t>描述</t>
@@ -1001,25 +1004,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="16.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="16.4444444444444"/>
+    <col min="5" max="6" width="15.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="16.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="16.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,15 +1044,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/基础资料-门幅组.xlsx
+++ b/src/main/resources/static/excel/基础资料-门幅组.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>编码</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>使用范围</t>
   </si>
   <si>
     <t>规格名称</t>
@@ -1004,25 +1001,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="6" width="15.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="16.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="16.4444444444444"/>
+    <col min="4" max="5" width="15.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="16.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,19 +1040,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
